--- a/public/projector-sample-upload.xlsx
+++ b/public/projector-sample-upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A41520-4672-7842-8C81-14D650D346D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B648782-3464-4942-AFE8-4DBE937F67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Tên Thiết Bị (name)</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Nhà Sản Xuất (manufacturer)</t>
+  </si>
+  <si>
+    <t>Tên Phòng (Room Name)</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAED9B37-DC91-F646-B2F5-9F1FFDAF461F}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -483,12 +489,12 @@
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="5" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,13 +511,16 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -523,10 +532,13 @@
         <v>1234566</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -538,10 +550,13 @@
         <v>1234567</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,10 +568,13 @@
         <v>1234568</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -568,15 +586,19 @@
         <v>1234569</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/projector-sample-upload.xlsx
+++ b/public/projector-sample-upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B648782-3464-4942-AFE8-4DBE937F67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FEE61C-A2E5-0649-9ABE-FD124193B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Tên Thiết Bị (name)</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Tivi</t>
+  </si>
+  <si>
+    <t>Màn hình tương tác</t>
+  </si>
+  <si>
+    <t>Máy chiếu</t>
   </si>
 </sst>
 </file>
@@ -480,7 +489,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -527,7 +536,9 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1">
         <v>1234566</v>
       </c>
@@ -545,7 +556,9 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="1">
         <v>1234567</v>
       </c>
@@ -563,7 +576,9 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="1">
         <v>1234568</v>
       </c>

--- a/public/projector-sample-upload.xlsx
+++ b/public/projector-sample-upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FEE61C-A2E5-0649-9ABE-FD124193B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40169134-731C-3747-B5DC-30ED994BBC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
